--- a/Assets/Resources/Excel/BattleShipEnemyDataExcel.xlsx
+++ b/Assets/Resources/Excel/BattleShipEnemyDataExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>APA. Pitt</t>
   </si>
@@ -123,6 +123,14 @@
   </si>
   <si>
     <t>ResourceName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestEnemy1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestEnemy2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +536,7 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -536,14 +544,14 @@
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
-    <col min="13" max="13" width="17.875" customWidth="1"/>
-    <col min="15" max="18" width="15.125" customWidth="1"/>
-    <col min="19" max="19" width="15.375" customWidth="1"/>
-    <col min="21" max="21" width="41.375" customWidth="1"/>
+    <col min="5" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="17.875" customWidth="1"/>
+    <col min="16" max="19" width="15.125" customWidth="1"/>
+    <col min="20" max="20" width="15.375" customWidth="1"/>
+    <col min="22" max="22" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" thickBot="1">
@@ -676,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="6">
         <v>30</v>
@@ -737,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6">
         <v>50</v>

--- a/Assets/Resources/Excel/BattleShipEnemyDataExcel.xlsx
+++ b/Assets/Resources/Excel/BattleShipEnemyDataExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>APA. Pitt</t>
   </si>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>TestEnemy2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -549,12 +557,14 @@
     <col min="12" max="12" width="14.625" customWidth="1"/>
     <col min="13" max="13" width="13.125" customWidth="1"/>
     <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="16" max="19" width="15.125" customWidth="1"/>
-    <col min="20" max="20" width="15.375" customWidth="1"/>
-    <col min="22" max="22" width="41.375" customWidth="1"/>
+    <col min="16" max="16" width="10.75" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="18" max="21" width="15.125" customWidth="1"/>
+    <col min="22" max="22" width="15.375" customWidth="1"/>
+    <col min="24" max="24" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1">
+    <row r="1" spans="1:23" ht="26.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -601,21 +611,27 @@
         <v>8</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" ht="17.25" thickBot="1">
+      <c r="V1" s="1"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" ht="17.25" thickBot="1">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -662,21 +678,27 @@
         <v>30</v>
       </c>
       <c r="P2" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>5</v>
+      </c>
+      <c r="R2" s="3">
         <v>2.1</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="S2" s="3">
         <v>5.5</v>
       </c>
-      <c r="R2" s="3">
+      <c r="T2" s="3">
         <v>100</v>
       </c>
-      <c r="S2" s="3">
+      <c r="U2" s="3">
         <v>50</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-    </row>
-    <row r="3" spans="1:21" ht="17.25" thickBot="1">
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" ht="17.25" thickBot="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -723,21 +745,27 @@
         <v>32</v>
       </c>
       <c r="P3" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>5</v>
+      </c>
+      <c r="R3" s="3">
         <v>2</v>
       </c>
-      <c r="Q3" s="3">
-        <v>5</v>
-      </c>
-      <c r="R3" s="3">
+      <c r="S3" s="3">
+        <v>5</v>
+      </c>
+      <c r="T3" s="3">
         <v>100</v>
       </c>
-      <c r="S3" s="3">
+      <c r="U3" s="3">
         <v>100</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" ht="17.25" thickBot="1">
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" ht="17.25" thickBot="1">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -784,21 +812,27 @@
         <v>34</v>
       </c>
       <c r="P4" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>5</v>
+      </c>
+      <c r="R4" s="3">
         <v>2</v>
       </c>
-      <c r="Q4" s="3">
-        <v>5</v>
-      </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
+        <v>5</v>
+      </c>
+      <c r="T4" s="3">
         <v>100</v>
       </c>
-      <c r="S4" s="3">
+      <c r="U4" s="3">
         <v>200</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" ht="17.25" thickBot="1">
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:23" ht="17.25" thickBot="1">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -845,21 +879,27 @@
         <v>36</v>
       </c>
       <c r="P5" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>5</v>
+      </c>
+      <c r="R5" s="3">
         <v>2</v>
       </c>
-      <c r="Q5" s="3">
-        <v>5</v>
-      </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
+        <v>5</v>
+      </c>
+      <c r="T5" s="3">
         <v>100</v>
       </c>
-      <c r="S5" s="3">
+      <c r="U5" s="3">
         <v>300</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" ht="17.25" thickBot="1">
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:23" ht="17.25" thickBot="1">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -906,21 +946,27 @@
         <v>38</v>
       </c>
       <c r="P6" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>5</v>
+      </c>
+      <c r="R6" s="3">
         <v>2</v>
       </c>
-      <c r="Q6" s="3">
-        <v>5</v>
-      </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
+        <v>5</v>
+      </c>
+      <c r="T6" s="3">
         <v>100</v>
       </c>
-      <c r="S6" s="3">
+      <c r="U6" s="3">
         <v>500</v>
       </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:21" ht="17.25" thickBot="1">
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" ht="17.25" thickBot="1">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -967,21 +1013,27 @@
         <v>40</v>
       </c>
       <c r="P7" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>5</v>
+      </c>
+      <c r="R7" s="3">
         <v>2</v>
       </c>
-      <c r="Q7" s="3">
-        <v>5</v>
-      </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
+        <v>5</v>
+      </c>
+      <c r="T7" s="3">
         <v>100</v>
       </c>
-      <c r="S7" s="3">
+      <c r="U7" s="3">
         <v>750</v>
       </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-    </row>
-    <row r="8" spans="1:21" ht="17.25" thickBot="1">
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="1:23" ht="17.25" thickBot="1">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1028,21 +1080,27 @@
         <v>42</v>
       </c>
       <c r="P8" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>5</v>
+      </c>
+      <c r="R8" s="3">
         <v>2</v>
       </c>
-      <c r="Q8" s="3">
-        <v>5</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
+        <v>5</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="5">
+      <c r="U8" s="5">
         <v>1000</v>
       </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" ht="17.25" thickBot="1">
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:23" ht="17.25" thickBot="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1061,11 +1119,13 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" ht="17.25" thickBot="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1084,11 +1144,13 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" ht="17.25" thickBot="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1107,11 +1169,13 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" ht="17.25" thickBot="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1130,11 +1194,13 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" ht="17.25" thickBot="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1153,11 +1219,13 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" ht="17.25" thickBot="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1176,11 +1244,13 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+    </row>
+    <row r="15" spans="1:23" ht="17.25" thickBot="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1199,11 +1269,13 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+    </row>
+    <row r="16" spans="1:23" ht="17.25" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1222,11 +1294,13 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+    </row>
+    <row r="17" spans="1:23" ht="17.25" thickBot="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1245,11 +1319,13 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-    </row>
-    <row r="18" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="1:23" ht="17.25" thickBot="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1268,11 +1344,13 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-    </row>
-    <row r="19" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="1:23" ht="17.25" thickBot="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1291,11 +1369,13 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-    </row>
-    <row r="20" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+    </row>
+    <row r="20" spans="1:23" ht="17.25" thickBot="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1314,11 +1394,13 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-    </row>
-    <row r="21" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+    </row>
+    <row r="21" spans="1:23" ht="17.25" thickBot="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1337,11 +1419,13 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-    </row>
-    <row r="22" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+    </row>
+    <row r="22" spans="1:23" ht="17.25" thickBot="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1360,11 +1444,13 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-    </row>
-    <row r="23" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+    </row>
+    <row r="23" spans="1:23" ht="17.25" thickBot="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1383,11 +1469,13 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="1:23" ht="17.25" thickBot="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1406,11 +1494,13 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-    </row>
-    <row r="25" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="1:23" ht="17.25" thickBot="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1429,11 +1519,13 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-    </row>
-    <row r="26" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+    </row>
+    <row r="26" spans="1:23" ht="17.25" thickBot="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1452,11 +1544,13 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-    </row>
-    <row r="27" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+    </row>
+    <row r="27" spans="1:23" ht="17.25" thickBot="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1475,11 +1569,13 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-    </row>
-    <row r="28" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+    </row>
+    <row r="28" spans="1:23" ht="17.25" thickBot="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1498,11 +1594,13 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-    </row>
-    <row r="29" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+    </row>
+    <row r="29" spans="1:23" ht="17.25" thickBot="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1521,11 +1619,13 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-    </row>
-    <row r="30" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+    </row>
+    <row r="30" spans="1:23" ht="17.25" thickBot="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1544,11 +1644,13 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-    </row>
-    <row r="31" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="1:23" ht="17.25" thickBot="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1567,11 +1669,13 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-    </row>
-    <row r="32" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" spans="1:23" ht="17.25" thickBot="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1590,11 +1694,13 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-    </row>
-    <row r="33" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+    </row>
+    <row r="33" spans="1:23" ht="17.25" thickBot="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1613,11 +1719,13 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-    </row>
-    <row r="34" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+    </row>
+    <row r="34" spans="1:23" ht="17.25" thickBot="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1636,11 +1744,13 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-    </row>
-    <row r="35" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+    </row>
+    <row r="35" spans="1:23" ht="17.25" thickBot="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1659,11 +1769,13 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-    </row>
-    <row r="36" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+    </row>
+    <row r="36" spans="1:23" ht="17.25" thickBot="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1682,11 +1794,13 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-    </row>
-    <row r="37" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+    </row>
+    <row r="37" spans="1:23" ht="17.25" thickBot="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1705,11 +1819,13 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-    </row>
-    <row r="38" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+    </row>
+    <row r="38" spans="1:23" ht="17.25" thickBot="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1728,11 +1844,13 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-    </row>
-    <row r="39" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+    </row>
+    <row r="39" spans="1:23" ht="17.25" thickBot="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1751,11 +1869,13 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-    </row>
-    <row r="40" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+    </row>
+    <row r="40" spans="1:23" ht="17.25" thickBot="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1774,11 +1894,13 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-    </row>
-    <row r="41" spans="1:21" ht="17.25" thickBot="1">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+    </row>
+    <row r="41" spans="1:23" ht="17.25" thickBot="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1797,9 +1919,11 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Resources/Excel/BattleShipEnemyDataExcel.xlsx
+++ b/Assets/Resources/Excel/BattleShipEnemyDataExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>APA. Pitt</t>
   </si>
@@ -47,10 +47,6 @@
     <t>DD.Z1 Class</t>
   </si>
   <si>
-    <t>Contry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Accuracy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -71,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TorpedoDefence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ReloadTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -139,6 +131,21 @@
   </si>
   <si>
     <t>CriticalDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveIds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +551,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -566,70 +573,69 @@
   <sheetData>
     <row r="1" spans="1:23" ht="26.25" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="17.25" thickBot="1">
       <c r="A2" s="6">
@@ -639,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6">
         <v>20</v>
@@ -672,31 +678,30 @@
         <v>1</v>
       </c>
       <c r="N2" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="O2" s="3">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="P2" s="3">
         <v>5</v>
       </c>
       <c r="Q2" s="3">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="R2" s="3">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="S2" s="3">
-        <v>5.5</v>
+        <v>100</v>
       </c>
       <c r="T2" s="3">
-        <v>100</v>
-      </c>
-      <c r="U2" s="3">
         <v>50</v>
       </c>
+      <c r="U2" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
     </row>
     <row r="3" spans="1:23" ht="17.25" thickBot="1">
       <c r="A3" s="6">
@@ -706,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6">
         <v>30</v>
@@ -739,31 +744,30 @@
         <v>2</v>
       </c>
       <c r="N3" s="3">
+        <v>32</v>
+      </c>
+      <c r="O3" s="3">
+        <v>5</v>
+      </c>
+      <c r="P3" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="3">
         <v>2</v>
       </c>
-      <c r="O3" s="3">
-        <v>32</v>
-      </c>
-      <c r="P3" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>5</v>
-      </c>
       <c r="R3" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S3" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T3" s="3">
         <v>100</v>
       </c>
-      <c r="U3" s="3">
-        <v>100</v>
+      <c r="U3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23" ht="17.25" thickBot="1">
       <c r="A4" s="6">
@@ -773,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="6">
         <v>50</v>
@@ -803,34 +807,33 @@
         <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="3">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="O4" s="3">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P4" s="3">
         <v>5</v>
       </c>
       <c r="Q4" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S4" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T4" s="3">
-        <v>100</v>
-      </c>
-      <c r="U4" s="3">
         <v>200</v>
       </c>
+      <c r="U4" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
     </row>
     <row r="5" spans="1:23" ht="17.25" thickBot="1">
       <c r="A5" s="6">
@@ -840,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6">
         <v>90</v>
@@ -870,34 +873,33 @@
         <v>0</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" s="3">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="O5" s="3">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="P5" s="3">
         <v>5</v>
       </c>
       <c r="Q5" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R5" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S5" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T5" s="3">
-        <v>100</v>
-      </c>
-      <c r="U5" s="3">
         <v>300</v>
       </c>
+      <c r="U5" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" thickBot="1">
       <c r="A6" s="6">
@@ -907,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6">
         <v>140</v>
@@ -937,34 +939,33 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="3">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="O6" s="3">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="P6" s="3">
         <v>5</v>
       </c>
       <c r="Q6" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R6" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S6" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T6" s="3">
-        <v>100</v>
-      </c>
-      <c r="U6" s="3">
         <v>500</v>
       </c>
+      <c r="U6" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
     </row>
     <row r="7" spans="1:23" ht="17.25" thickBot="1">
       <c r="A7" s="6">
@@ -974,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
         <v>200</v>
@@ -1004,34 +1005,33 @@
         <v>0</v>
       </c>
       <c r="M7" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="3">
+        <v>40</v>
+      </c>
+      <c r="O7" s="3">
+        <v>5</v>
+      </c>
+      <c r="P7" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="3">
         <v>2</v>
       </c>
-      <c r="O7" s="3">
-        <v>40</v>
-      </c>
-      <c r="P7" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>5</v>
-      </c>
       <c r="R7" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S7" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T7" s="3">
-        <v>100</v>
-      </c>
-      <c r="U7" s="3">
         <v>750</v>
       </c>
+      <c r="U7" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
     </row>
     <row r="8" spans="1:23" ht="17.25" thickBot="1">
       <c r="A8" s="6">
@@ -1041,7 +1041,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6">
         <v>280</v>
@@ -1071,34 +1071,33 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="3">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="O8" s="3">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="P8" s="3">
         <v>5</v>
       </c>
       <c r="Q8" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R8" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S8" s="3">
-        <v>5</v>
-      </c>
-      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="U8" s="5">
+      <c r="T8" s="5">
         <v>1000</v>
       </c>
+      <c r="U8" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
     </row>
     <row r="9" spans="1:23" ht="17.25" thickBot="1">
       <c r="A9" s="3"/>
